--- a/biology/Botanique/Pittospore_de_Nouvelle-Zélande/Pittospore_de_Nouvelle-Zélande.xlsx
+++ b/biology/Botanique/Pittospore_de_Nouvelle-Zélande/Pittospore_de_Nouvelle-Zélande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pittospore_de_Nouvelle-Z%C3%A9lande</t>
+          <t>Pittospore_de_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pittospore de Nouvelle-Zélande
-Pittosporum tenuifolium, le Pittospore de Nouvelle-Zélande[2], est une espèce de plantes à fleurs de la famille des Pittosporaceae et du genre Pittosporum. C'est un arbuste à feuilles persistantes, endémique de Nouvelle-Zélande.
+Pittosporum tenuifolium, le Pittospore de Nouvelle-Zélande, est une espèce de plantes à fleurs de la famille des Pittosporaceae et du genre Pittosporum. C'est un arbuste à feuilles persistantes, endémique de Nouvelle-Zélande.
 tenuifolium signifie « à feuilles minces », de tenui - mince, et folium - feuille. Appelé aussi Pittospore à petites feuilles[réf. nécessaire].
 Communément appelé kōhūhū et matipo noir, et par d'autres noms maoris kohukohu et tawhiwhi.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pittospore_de_Nouvelle-Z%C3%A9lande</t>
+          <t>Pittospore_de_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a la ramure compacte, mesure jusqu'à 10 m. 
-Son tronc est mince (30 à 40 cm de diamètre) avec une couleur d'écorce gris foncé marbré qui noircit puis rougit progressivement vers l'extrémité des branches [3]. Le système racinaire est peu profond et étalé[4].
+Son tronc est mince (30 à 40 cm de diamètre) avec une couleur d'écorce gris foncé marbré qui noircit puis rougit progressivement vers l'extrémité des branches . Le système racinaire est peu profond et étalé.
 Sa feuille ovale satiné argenté, à marge ondulés, à un pétiole court, mesure jusqu'à 4 cm.
-Sa floraison a lieu au printemps. Sa fleur est pourpre à violacée d'environ 1 cm[5] rarement jaune. Les fleurs se développent à partir de bourgeons latéraux, individuellement ou en touffes, et peuvent être hermaphrodites ou seulement mâles. Les fleurs sont remplies de nectar et dégagent un parfum de miel la nuit, le parfum étant plus évident dans des conditions légèrement humides. Ce dernier attire les mites et autres insectes volants la nuit, qui aident probablement à la pollinisation.
-Son fruit est une capsule[6]. Le fruit est recouvert d'une petite couche de poils au début de la maturation, qui disparaît progressivement à maturité. La maturation du fruit a lieu entre le milieu de l'été et l'automne[7]. Cette capsule rétrécit, durcit et devient presque noire, se divisant en deux ou trois segments lorsqu'elle est mûre. À l'intérieur se trouvent des graines noires, enfermées dans une substance très collante. Le caractère collant des graines est susceptible d'aider à la dispersion des graines.
+Sa floraison a lieu au printemps. Sa fleur est pourpre à violacée d'environ 1 cm rarement jaune. Les fleurs se développent à partir de bourgeons latéraux, individuellement ou en touffes, et peuvent être hermaphrodites ou seulement mâles. Les fleurs sont remplies de nectar et dégagent un parfum de miel la nuit, le parfum étant plus évident dans des conditions légèrement humides. Ce dernier attire les mites et autres insectes volants la nuit, qui aident probablement à la pollinisation.
+Son fruit est une capsule. Le fruit est recouvert d'une petite couche de poils au début de la maturation, qui disparaît progressivement à maturité. La maturation du fruit a lieu entre le milieu de l'été et l'automne. Cette capsule rétrécit, durcit et devient presque noire, se divisant en deux ou trois segments lorsqu'elle est mûre. À l'intérieur se trouvent des graines noires, enfermées dans une substance très collante. Le caractère collant des graines est susceptible d'aider à la dispersion des graines.
 </t>
         </is>
       </c>
